--- a/data/spring-cloud-shop/shop-auth-server-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-auth-server-api_structure.xlsx
@@ -504,70 +504,70 @@
     <t>this$0</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>avatar</t>
+    <t>redisConnectionFactory</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.connection.RedisConnectionFactory</t>
+  </si>
+  <si>
+    <t>authenticationManager</t>
   </si>
   <si>
     <t>webResponseExceptionTranslator</t>
   </si>
   <si>
+    <t>authorizationCodeServices</t>
+  </si>
+  <si>
     <t>dataSource</t>
   </si>
   <si>
     <t>javax.sql.DataSource</t>
   </si>
   <si>
-    <t>authorizationCodeServices</t>
-  </si>
-  <si>
-    <t>authenticationManager</t>
-  </si>
-  <si>
-    <t>redisConnectionFactory</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.connection.RedisConnectionFactory</t>
+    <t>requestFactory</t>
+  </si>
+  <si>
+    <t>userService</t>
   </si>
   <si>
     <t>GRANT_TYPE</t>
   </si>
   <si>
-    <t>requestFactory</t>
-  </si>
-  <si>
-    <t>userService</t>
+    <t>userClient</t>
+  </si>
+  <si>
+    <t>authClient</t>
   </si>
   <si>
     <t>redisTemplate</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.RedisTemplate</t>
-  </si>
-  <si>
-    <t>authClient</t>
-  </si>
-  <si>
-    <t>userClient</t>
   </si>
   <si>
     <t>throwableAnalyzer</t>
@@ -5300,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -5328,7 +5328,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>57</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
@@ -5336,13 +5336,13 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -5350,7 +5350,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>41</v>
@@ -5364,13 +5364,13 @@
         <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>166</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -5384,7 +5384,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -5392,13 +5392,13 @@
         <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -5406,7 +5406,7 @@
         <v>59</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>41</v>
@@ -5420,13 +5420,13 @@
         <v>59</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -5434,13 +5434,13 @@
         <v>59</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -5448,13 +5448,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -5468,7 +5468,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -5476,13 +5476,13 @@
         <v>82</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -5490,13 +5490,13 @@
         <v>82</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
@@ -5504,13 +5504,13 @@
         <v>82</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -5524,7 +5524,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -5538,7 +5538,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24">
@@ -5566,7 +5566,7 @@
         <v>41</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -5580,7 +5580,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -5594,7 +5594,7 @@
         <v>41</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -5608,7 +5608,7 @@
         <v>41</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>179</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -5616,7 +5616,7 @@
         <v>109</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>41</v>
@@ -5630,13 +5630,13 @@
         <v>109</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31">
@@ -5672,7 +5672,7 @@
         <v>139</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>41</v>
@@ -5686,7 +5686,7 @@
         <v>139</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>41</v>
